--- a/common/src/main/webapp/imports/export-梁超-46.xlsx
+++ b/common/src/main/webapp/imports/export-梁超-46.xlsx
@@ -1547,9 +1547,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1578,7 +1578,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,6 +1594,58 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1600,107 +1660,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1715,14 +1675,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1737,13 +1737,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1761,13 +1845,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1779,19 +1869,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1803,31 +1887,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,25 +1905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1869,55 +1917,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1934,23 +1934,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1984,8 +1969,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1994,7 +1979,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2013,170 +2028,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2184,22 +2184,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2562,7 +2556,7 @@
   <dimension ref="A1:AE46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="D5" sqref="A1:V46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -2596,32 +2590,32 @@
     <col min="31" max="31" width="100.666666666667" style="1" customWidth="1"/>
     <col min="32" max="32" width="0" style="1" hidden="1" customWidth="1"/>
     <col min="33" max="16383" width="8.88333333333333" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="1"/>
+    <col min="16384" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:31">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -2633,24 +2627,29 @@
       <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q1" s="2">
         <v>248843338</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
       <c r="X1" s="1" t="s">
         <v>14</v>
       </c>
@@ -2674,28 +2673,28 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:31">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -2707,24 +2706,29 @@
       <c r="K2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="N2" s="2"/>
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="1">
+      <c r="Q2" s="2">
         <v>86539809</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
       <c r="X2" s="1" t="s">
         <v>14</v>
       </c>
@@ -2748,25 +2752,26 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:31">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -2778,24 +2783,29 @@
       <c r="K3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="N3" s="2"/>
+      <c r="O3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q3" s="1">
+      <c r="Q3" s="2">
         <v>13889840892</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
       <c r="X3" s="1" t="s">
         <v>14</v>
       </c>
@@ -2819,28 +2829,28 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:31">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -2852,28 +2862,31 @@
       <c r="K4" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q4" s="7">
+      <c r="Q4" s="2">
         <v>89796378</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="U4" s="7"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
       <c r="X4" s="1" t="s">
         <v>14</v>
       </c>
@@ -2897,28 +2910,28 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:31">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>55</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -2930,27 +2943,31 @@
       <c r="K5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="1">
+      <c r="N5" s="2">
         <v>50</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="Q5" s="1">
+      <c r="Q5" s="2">
         <v>31268367</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
       <c r="X5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2974,28 +2991,28 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:31">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -3007,27 +3024,31 @@
       <c r="K6" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q6" s="1">
+      <c r="Q6" s="2">
         <v>31621188</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
       <c r="X6" s="1" t="s">
         <v>14</v>
       </c>
@@ -3051,28 +3072,28 @@
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:31">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>7</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -3084,27 +3105,31 @@
       <c r="K7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="2">
         <v>13644991114</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
       <c r="X7" s="1" t="s">
         <v>14</v>
       </c>
@@ -3128,28 +3153,28 @@
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:31">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>8</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -3161,27 +3186,31 @@
       <c r="K8" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="2">
         <v>22867541</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
       <c r="X8" s="1" t="s">
         <v>14</v>
       </c>
@@ -3205,28 +3234,28 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:31">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>101</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>103</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -3238,24 +3267,29 @@
       <c r="K9" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="2"/>
+      <c r="O9" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="2">
         <v>89712591</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
       <c r="X9" s="1" t="s">
         <v>14</v>
       </c>
@@ -3279,28 +3313,28 @@
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:31">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>10</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -3312,24 +3346,29 @@
       <c r="K10" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="N10" s="2"/>
+      <c r="O10" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="2">
         <v>24815353</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
       <c r="X10" s="1" t="s">
         <v>14</v>
       </c>
@@ -3353,28 +3392,28 @@
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:31">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>11</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>122</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>124</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -3386,27 +3425,31 @@
       <c r="K11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="P11" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="Q11" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
       <c r="X11" s="1" t="s">
         <v>14</v>
       </c>
@@ -3430,28 +3473,28 @@
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:31">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>12</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>134</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -3463,36 +3506,37 @@
       <c r="K12" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="P12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="Q12" s="2">
         <v>18642057657</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T12" s="1" t="s">
+      <c r="T12" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="U12" s="1">
+      <c r="U12" s="2">
         <v>18642057657</v>
       </c>
+      <c r="V12" s="2"/>
       <c r="X12" s="1" t="s">
         <v>14</v>
       </c>
@@ -3516,28 +3560,28 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:31">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>13</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>148</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -3549,24 +3593,29 @@
       <c r="K13" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="P13" s="1" t="s">
+      <c r="P13" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="Q13" s="2">
         <v>23951111</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
       <c r="X13" s="1" t="s">
         <v>14</v>
       </c>
@@ -3590,28 +3639,28 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:31">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>14</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>68</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -3623,27 +3672,31 @@
       <c r="K14" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="P14" s="1" t="s">
+      <c r="P14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q14" s="1">
+      <c r="Q14" s="2">
         <v>23967593</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
       <c r="X14" s="1" t="s">
         <v>14</v>
       </c>
@@ -3667,28 +3720,28 @@
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:31">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>15</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>167</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>169</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -3700,27 +3753,31 @@
       <c r="K15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="P15" s="1" t="s">
+      <c r="P15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="1" t="s">
+      <c r="Q15" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
       <c r="X15" s="1" t="s">
         <v>14</v>
       </c>
@@ -3744,28 +3801,28 @@
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:31">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>16</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>179</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -3777,24 +3834,29 @@
       <c r="K16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="N16" s="2"/>
+      <c r="O16" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="P16" s="1" t="s">
+      <c r="P16" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="2">
         <v>28966276</v>
       </c>
-      <c r="R16" s="1" t="s">
+      <c r="R16" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
       <c r="X16" s="1" t="s">
         <v>14</v>
       </c>
@@ -3818,28 +3880,28 @@
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:31">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>189</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -3851,27 +3913,31 @@
       <c r="K17" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="P17" s="1" t="s">
+      <c r="P17" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q17" s="1" t="s">
+      <c r="Q17" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
       <c r="X17" s="1" t="s">
         <v>14</v>
       </c>
@@ -3895,28 +3961,28 @@
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:31">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>18</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>200</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -3928,37 +3994,37 @@
       <c r="K18" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="P18" s="1" t="s">
+      <c r="P18" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q18" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="T18" s="1" t="s">
+      <c r="T18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U18" s="1">
+      <c r="U18" s="2">
         <v>26710200</v>
       </c>
-      <c r="V18" s="1" t="s">
+      <c r="V18" s="2" t="s">
         <v>208</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -3984,28 +4050,28 @@
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:31">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>19</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>214</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -4017,24 +4083,29 @@
       <c r="K19" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="N19" s="2"/>
+      <c r="O19" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="P19" s="1" t="s">
+      <c r="P19" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="Q19" s="2">
         <v>88080272</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
       <c r="X19" s="1" t="s">
         <v>14</v>
       </c>
@@ -4058,28 +4129,28 @@
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:31">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>20</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>225</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -4091,30 +4162,33 @@
       <c r="K20" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="N20" s="2"/>
+      <c r="O20" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="P20" s="1" t="s">
+      <c r="P20" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="Q20" s="1">
+      <c r="Q20" s="2">
         <v>89738168</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="T20" s="1" t="s">
+      <c r="T20" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
       <c r="X20" s="1" t="s">
         <v>14</v>
       </c>
@@ -4138,28 +4212,28 @@
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:31">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>21</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>237</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -4171,24 +4245,29 @@
       <c r="K21" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="N21" s="2"/>
+      <c r="O21" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="P21" s="1" t="s">
+      <c r="P21" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="Q21" s="2">
         <v>15177768666</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
       <c r="X21" s="1" t="s">
         <v>14</v>
       </c>
@@ -4212,28 +4291,28 @@
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:31">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>22</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>248</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>250</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -4245,27 +4324,31 @@
       <c r="K22" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="P22" s="1" t="s">
+      <c r="P22" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q22" s="1" t="s">
+      <c r="Q22" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
       <c r="X22" s="1" t="s">
         <v>14</v>
       </c>
@@ -4289,28 +4372,28 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:31">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>260</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -4322,31 +4405,33 @@
       <c r="K23" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="N23" s="2"/>
+      <c r="O23" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="P23" s="1" t="s">
+      <c r="P23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q23" s="1" t="s">
+      <c r="Q23" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="V23" s="1" t="s">
+      <c r="V23" s="2" t="s">
         <v>269</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -4372,28 +4457,28 @@
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:31">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>24</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>275</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -4405,34 +4490,35 @@
       <c r="K24" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="N24" s="2"/>
+      <c r="O24" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="P24" s="1" t="s">
+      <c r="P24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="Q24" s="2">
         <v>23732677</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="T24" s="1" t="s">
+      <c r="T24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U24" s="1">
+      <c r="U24" s="2">
         <v>23732677</v>
       </c>
-      <c r="V24" s="1" t="s">
+      <c r="V24" s="2" t="s">
         <v>280</v>
       </c>
       <c r="X24" s="1" t="s">
@@ -4458,28 +4544,28 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:31">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>25</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>285</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -4491,21 +4577,27 @@
       <c r="K25" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="N25" s="2"/>
+      <c r="O25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2">
         <v>24690900</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="2" t="s">
         <v>290</v>
       </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
       <c r="X25" s="1" t="s">
         <v>14</v>
       </c>
@@ -4529,28 +4621,28 @@
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:31">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>26</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>295</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>297</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -4562,24 +4654,29 @@
       <c r="K26" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="N26" s="2"/>
+      <c r="O26" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="P26" s="1" t="s">
+      <c r="P26" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" s="1">
+      <c r="Q26" s="2">
         <v>13904041616</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
       <c r="X26" s="1" t="s">
         <v>14</v>
       </c>
@@ -4603,28 +4700,28 @@
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:31">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>306</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>308</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -4636,27 +4733,31 @@
       <c r="K27" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="P27" s="1" t="s">
+      <c r="P27" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="Q27" s="2">
         <v>24810097</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="2" t="s">
         <v>312</v>
       </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
       <c r="X27" s="1" t="s">
         <v>14</v>
       </c>
@@ -4680,25 +4781,26 @@
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:31">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>28</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>317</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -4710,24 +4812,29 @@
       <c r="K28" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="N28" s="2"/>
+      <c r="O28" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="P28" s="1" t="s">
+      <c r="P28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="Q28" s="2">
         <v>2478716123</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="2" t="s">
         <v>320</v>
       </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
       <c r="X28" s="1" t="s">
         <v>14</v>
       </c>
@@ -4751,28 +4858,28 @@
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:31">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>29</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>325</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -4784,36 +4891,37 @@
       <c r="K29" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="P29" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q29" s="2">
         <v>86017111</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="T29" s="1" t="s">
+      <c r="T29" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="U29" s="1">
+      <c r="U29" s="2">
         <v>86017111</v>
       </c>
+      <c r="V29" s="2"/>
       <c r="X29" s="1" t="s">
         <v>14</v>
       </c>
@@ -4837,28 +4945,28 @@
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:31">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>30</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>146</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>335</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -4870,24 +4978,29 @@
       <c r="K30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="N30" s="2"/>
+      <c r="O30" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="P30" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="Q30" s="2">
         <v>89738168</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="2" t="s">
         <v>338</v>
       </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
       <c r="X30" s="1" t="s">
         <v>14</v>
       </c>
@@ -4911,28 +5024,28 @@
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>31</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>158</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>343</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -4944,27 +5057,31 @@
       <c r="K31" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="P31" s="1" t="s">
+      <c r="P31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q31" s="1" t="s">
+      <c r="Q31" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="R31" s="1" t="s">
+      <c r="R31" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
       <c r="X31" s="1" t="s">
         <v>14</v>
       </c>
@@ -4988,28 +5105,28 @@
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:31">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>32</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>235</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>355</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -5021,37 +5138,37 @@
       <c r="K32" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="P32" s="1" t="s">
+      <c r="P32" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q32" s="1">
+      <c r="Q32" s="2">
         <v>32181333</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R32" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="T32" s="1" t="s">
+      <c r="T32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U32" s="1">
+      <c r="U32" s="2">
         <v>13804970469</v>
       </c>
-      <c r="V32" s="1" t="s">
+      <c r="V32" s="2" t="s">
         <v>361</v>
       </c>
       <c r="X32" s="1" t="s">
@@ -5077,25 +5194,26 @@
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:31">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>33</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>367</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -5107,24 +5225,29 @@
       <c r="K33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="N33" s="2"/>
+      <c r="O33" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="Q33" s="1">
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2">
         <v>88076236</v>
       </c>
-      <c r="R33" s="1" t="s">
+      <c r="R33" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="S33" s="2" t="s">
         <v>364</v>
       </c>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
       <c r="X33" s="1" t="s">
         <v>14</v>
       </c>
@@ -5148,28 +5271,28 @@
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:31">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>34</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>375</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>377</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -5181,24 +5304,29 @@
       <c r="K34" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="N34" s="2"/>
+      <c r="O34" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="P34" s="1" t="s">
+      <c r="P34" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q34" s="1">
+      <c r="Q34" s="2">
         <v>31419956</v>
       </c>
-      <c r="R34" s="1" t="s">
+      <c r="R34" s="2" t="s">
         <v>381</v>
       </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
       <c r="X34" s="1" t="s">
         <v>14</v>
       </c>
@@ -5222,28 +5350,28 @@
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:31">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>35</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>375</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>386</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -5255,27 +5383,31 @@
       <c r="K35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="P35" s="1" t="s">
+      <c r="P35" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q35" s="1">
+      <c r="Q35" s="2">
         <v>24344156</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R35" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
       <c r="X35" s="1" t="s">
         <v>14</v>
       </c>
@@ -5299,28 +5431,28 @@
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:31">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>36</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>394</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>396</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -5332,37 +5464,37 @@
       <c r="K36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="P36" s="1" t="s">
+      <c r="P36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q36" s="7">
+      <c r="Q36" s="2">
         <v>18070339843</v>
       </c>
-      <c r="R36" s="1" t="s">
+      <c r="R36" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="S36" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="T36" s="1" t="s">
+      <c r="T36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="U36" s="1">
+      <c r="U36" s="2">
         <v>1807033983</v>
       </c>
-      <c r="V36" s="1" t="s">
+      <c r="V36" s="2" t="s">
         <v>401</v>
       </c>
       <c r="X36" s="1" t="s">
@@ -5388,28 +5520,28 @@
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:31">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>37</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>187</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>406</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -5421,24 +5553,29 @@
       <c r="K37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="N37" s="2"/>
+      <c r="O37" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="P37" s="1" t="s">
+      <c r="P37" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q37" s="1">
+      <c r="Q37" s="2">
         <v>13504072868</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R37" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
       <c r="X37" s="1" t="s">
         <v>14</v>
       </c>
@@ -5462,28 +5599,28 @@
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:31">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>38</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>77</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>414</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -5495,36 +5632,37 @@
       <c r="K38" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N38" s="1">
+      <c r="N38" s="2">
         <v>10</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="P38" s="1" t="s">
+      <c r="P38" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="Q38" s="1">
+      <c r="Q38" s="2">
         <v>18910963292</v>
       </c>
-      <c r="R38" s="1" t="s">
+      <c r="R38" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="S38" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="T38" s="1" t="s">
+      <c r="T38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="U38" s="1">
+      <c r="U38" s="2">
         <v>18910963153</v>
       </c>
+      <c r="V38" s="2"/>
       <c r="X38" s="1" t="s">
         <v>14</v>
       </c>
@@ -5551,28 +5689,28 @@
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:31">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>39</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>426</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>428</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -5584,27 +5722,31 @@
       <c r="K39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N39" s="2">
         <v>18</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="P39" s="1" t="s">
+      <c r="P39" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="Q39" s="1" t="s">
+      <c r="Q39" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R39" s="2" t="s">
         <v>433</v>
       </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
       <c r="X39" s="1" t="s">
         <v>14</v>
       </c>
@@ -5628,28 +5770,28 @@
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:31">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>40</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>439</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>189</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -5661,27 +5803,31 @@
       <c r="K40" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N40" s="1">
+      <c r="N40" s="2">
         <v>30</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="P40" s="1" t="s">
+      <c r="P40" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="Q40" s="1">
+      <c r="Q40" s="2">
         <v>18640535226</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="2" t="s">
         <v>194</v>
       </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
       <c r="X40" s="1" t="s">
         <v>14</v>
       </c>
@@ -5705,28 +5851,28 @@
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:31">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>41</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>451</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>453</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -5738,27 +5884,31 @@
       <c r="K41" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N41" s="1">
+      <c r="N41" s="2">
         <v>140</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="P41" s="1" t="s">
+      <c r="P41" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="Q41" s="1">
+      <c r="Q41" s="2">
         <v>89794192</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="2" t="s">
         <v>459</v>
       </c>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
       <c r="X41" s="1" t="s">
         <v>14</v>
       </c>
@@ -5785,28 +5935,28 @@
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:31">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>42</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>469</v>
       </c>
       <c r="I42" s="2">
@@ -5818,27 +5968,31 @@
       <c r="K42" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="2" t="s">
         <v>466</v>
       </c>
       <c r="P42" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="5">
         <v>88902599</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R42" s="2" t="s">
         <v>471</v>
       </c>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
       <c r="X42" s="1" t="s">
         <v>14</v>
       </c>
@@ -5862,25 +6016,26 @@
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:31">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>43</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>90</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>476</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -5892,13 +6047,13 @@
       <c r="K43" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="2" t="s">
         <v>84</v>
       </c>
       <c r="O43" s="6" t="s">
@@ -5907,12 +6062,16 @@
       <c r="P43" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q43" s="1" t="s">
+      <c r="Q43" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R43" s="2" t="s">
         <v>482</v>
       </c>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
       <c r="X43" s="1" t="s">
         <v>14</v>
       </c>
@@ -5936,28 +6095,28 @@
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:31">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>44</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>488</v>
       </c>
       <c r="I44" s="2">
@@ -5969,27 +6128,31 @@
       <c r="K44" s="2">
         <v>44569</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P44" s="1" t="s">
+      <c r="P44" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q44" s="1">
+      <c r="Q44" s="2">
         <v>86128588</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R44" s="2" t="s">
         <v>489</v>
       </c>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
       <c r="X44" s="1" t="s">
         <v>14</v>
       </c>
@@ -6013,28 +6176,28 @@
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:31">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>45</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>488</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -6044,27 +6207,31 @@
         <v>495</v>
       </c>
       <c r="K45" s="2"/>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="P45" s="1" t="s">
+      <c r="P45" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q45" s="1">
+      <c r="Q45" s="2">
         <v>89864461</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="R45" s="2" t="s">
         <v>496</v>
       </c>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
       <c r="Z45" s="1" t="s">
         <v>15</v>
       </c>
@@ -6085,28 +6252,28 @@
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:31">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>46</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>498</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>501</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -6118,24 +6285,29 @@
       <c r="K46" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="N46" s="2"/>
+      <c r="O46" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="P46" s="1" t="s">
+      <c r="P46" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Q46" s="1" t="s">
+      <c r="Q46" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R46" s="2" t="s">
         <v>506</v>
       </c>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
       <c r="Z46" s="1" t="s">
         <v>29</v>
       </c>
